--- a/Code/Results/Cases/Case_2_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_228/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9807337984114831</v>
+        <v>1.016355905698264</v>
       </c>
       <c r="D2">
-        <v>1.002582434166053</v>
+        <v>1.022479483613737</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9565361100856838</v>
+        <v>1.014699180095862</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035825714383001</v>
+        <v>1.026597905994943</v>
       </c>
       <c r="J2">
-        <v>1.003506435291881</v>
+        <v>1.02157618415187</v>
       </c>
       <c r="K2">
-        <v>1.014005908442573</v>
+        <v>1.025313742829508</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9686361189350918</v>
+        <v>1.017556549926796</v>
       </c>
       <c r="N2">
-        <v>1.004931529533793</v>
+        <v>1.023026939509792</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9858638981241978</v>
+        <v>1.017389262125247</v>
       </c>
       <c r="D3">
-        <v>1.006249184928213</v>
+        <v>1.023228818503399</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9644818052147841</v>
+        <v>1.016376763410981</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036894112565818</v>
+        <v>1.026739901939617</v>
       </c>
       <c r="J3">
-        <v>1.006747488795181</v>
+        <v>1.02224451437671</v>
       </c>
       <c r="K3">
-        <v>1.016802725862232</v>
+        <v>1.025869909336335</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9755902668267998</v>
+        <v>1.019036714724625</v>
       </c>
       <c r="N3">
-        <v>1.008177185704821</v>
+        <v>1.02369621884021</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.989098016001894</v>
+        <v>1.018057337339677</v>
       </c>
       <c r="D4">
-        <v>1.008562202549682</v>
+        <v>1.023712977436805</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9694770658272237</v>
+        <v>1.017461496354829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037555022411501</v>
+        <v>1.02683012277388</v>
       </c>
       <c r="J4">
-        <v>1.008784767541923</v>
+        <v>1.022675861717926</v>
       </c>
       <c r="K4">
-        <v>1.018558376141378</v>
+        <v>1.026228417103951</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.979958391159955</v>
+        <v>1.019993265129218</v>
       </c>
       <c r="N4">
-        <v>1.010217357621063</v>
+        <v>1.024128178744127</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9904381255814513</v>
+        <v>1.018338060112591</v>
       </c>
       <c r="D5">
-        <v>1.009520904746628</v>
+        <v>1.023916348077487</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.971544087659528</v>
+        <v>1.017917340599199</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037825803499416</v>
+        <v>1.026867654294941</v>
       </c>
       <c r="J5">
-        <v>1.009627509635331</v>
+        <v>1.022856936295487</v>
       </c>
       <c r="K5">
-        <v>1.019284010224044</v>
+        <v>1.026378806620884</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9817649582892087</v>
+        <v>1.020395115144845</v>
       </c>
       <c r="N5">
-        <v>1.011061296504908</v>
+        <v>1.024309510468357</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9906620174303158</v>
+        <v>1.018385186773475</v>
       </c>
       <c r="D6">
-        <v>1.009681088391536</v>
+        <v>1.023950484958692</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9718892704797502</v>
+        <v>1.017993868683567</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03787086049832</v>
+        <v>1.026873932706341</v>
       </c>
       <c r="J6">
-        <v>1.00976822151598</v>
+        <v>1.022887324075736</v>
       </c>
       <c r="K6">
-        <v>1.0194051318093</v>
+        <v>1.026404038516425</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9820665895088332</v>
+        <v>1.020462571097077</v>
       </c>
       <c r="N6">
-        <v>1.011202208212566</v>
+        <v>1.02433994140274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9891159981037422</v>
+        <v>1.018061088903551</v>
       </c>
       <c r="D7">
-        <v>1.008575065829937</v>
+        <v>1.023715695551894</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9695048125649001</v>
+        <v>1.017467588055177</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037558668089478</v>
+        <v>1.026830625832979</v>
       </c>
       <c r="J7">
-        <v>1.008796081477954</v>
+        <v>1.02267828228059</v>
       </c>
       <c r="K7">
-        <v>1.018568120344144</v>
+        <v>1.026230427900756</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9799826454786882</v>
+        <v>1.019998635775003</v>
       </c>
       <c r="N7">
-        <v>1.01022868762418</v>
+        <v>1.024130602744267</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9824858047018609</v>
+        <v>1.01670525354399</v>
       </c>
       <c r="D8">
-        <v>1.003834337253559</v>
+        <v>1.022732872281074</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9592529114416106</v>
+        <v>1.01526629278056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036193217585407</v>
+        <v>1.026646237971952</v>
       </c>
       <c r="J8">
-        <v>1.004614549276638</v>
+        <v>1.021802279403886</v>
       </c>
       <c r="K8">
-        <v>1.014962619304382</v>
+        <v>1.025501985779147</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9710146584862511</v>
+        <v>1.018057034474654</v>
       </c>
       <c r="N8">
-        <v>1.006041217167509</v>
+        <v>1.023253355842999</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9701028102138388</v>
+        <v>1.014311612582236</v>
       </c>
       <c r="D9">
-        <v>0.994995460057566</v>
+        <v>1.020995548613844</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9399688846896705</v>
+        <v>1.011381020659848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033543534042996</v>
+        <v>1.026308604200629</v>
       </c>
       <c r="J9">
-        <v>0.9967573596069852</v>
+        <v>1.020250118624637</v>
       </c>
       <c r="K9">
-        <v>1.008170257646204</v>
+        <v>1.024207862492533</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9541172934844488</v>
+        <v>1.014626057207372</v>
       </c>
       <c r="N9">
-        <v>0.998172869387294</v>
+        <v>1.021698990817409</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9613063165853626</v>
+        <v>1.012712723436749</v>
       </c>
       <c r="D10">
-        <v>0.9887325879039875</v>
+        <v>1.019833629035883</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.926136150354934</v>
+        <v>1.008786081658748</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031596772901818</v>
+        <v>1.026074955273946</v>
       </c>
       <c r="J10">
-        <v>0.9911439277953318</v>
+        <v>1.01920953114614</v>
       </c>
       <c r="K10">
-        <v>1.003308303262647</v>
+        <v>1.023338000285984</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9419806764708267</v>
+        <v>1.012331815916494</v>
       </c>
       <c r="N10">
-        <v>0.9925514658585989</v>
+        <v>1.020656925585335</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9573508698006357</v>
+        <v>1.01201961876227</v>
       </c>
       <c r="D11">
-        <v>0.9859215655849525</v>
+        <v>1.019329618672648</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9198733709290713</v>
+        <v>1.00766120077835</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030706782092775</v>
+        <v>1.025971750119433</v>
       </c>
       <c r="J11">
-        <v>0.9886122093836617</v>
+        <v>1.018757548354732</v>
       </c>
       <c r="K11">
-        <v>1.001113955580541</v>
+        <v>1.022959642601455</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9364829687024271</v>
+        <v>1.011336641464614</v>
       </c>
       <c r="N11">
-        <v>0.9900161521163919</v>
+        <v>1.020204300926519</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9558578765129838</v>
+        <v>1.011762050023323</v>
       </c>
       <c r="D12">
-        <v>0.9848614353288949</v>
+        <v>1.019142272046536</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9175019618230199</v>
+        <v>1.007243171375214</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030368720528919</v>
+        <v>1.025933109332702</v>
       </c>
       <c r="J12">
-        <v>0.987655462884381</v>
+        <v>1.018589449607373</v>
       </c>
       <c r="K12">
-        <v>1.000284529262185</v>
+        <v>1.022818847050627</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9344009186890628</v>
+        <v>1.010966717286365</v>
       </c>
       <c r="N12">
-        <v>0.9890580469273417</v>
+        <v>1.020035963459659</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9561792343969244</v>
+        <v>1.011817304806159</v>
       </c>
       <c r="D13">
-        <v>0.9850895794675762</v>
+        <v>1.019182464643873</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.918012751529886</v>
+        <v>1.007332849247436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030441581514512</v>
+        <v>1.025941411754956</v>
       </c>
       <c r="J13">
-        <v>0.9878614486069044</v>
+        <v>1.018625516989092</v>
       </c>
       <c r="K13">
-        <v>1.000463110012599</v>
+        <v>1.022849059805086</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9348493954646756</v>
+        <v>1.011046079731223</v>
       </c>
       <c r="N13">
-        <v>0.9892643251732179</v>
+        <v>1.020072082061196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9572279541521834</v>
+        <v>1.011998330487152</v>
       </c>
       <c r="D14">
-        <v>0.9858342678838742</v>
+        <v>1.01931413529534</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9196782959461469</v>
+        <v>1.007626650446014</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030678992960185</v>
+        <v>1.025968562299689</v>
       </c>
       <c r="J14">
-        <v>0.988533465289606</v>
+        <v>1.018743657598536</v>
       </c>
       <c r="K14">
-        <v>1.001045693610768</v>
+        <v>1.022948009639017</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9363117029966723</v>
+        <v>1.011306069017652</v>
       </c>
       <c r="N14">
-        <v>0.9899372961966904</v>
+        <v>1.020190390443857</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9578709001377376</v>
+        <v>1.012109850570729</v>
       </c>
       <c r="D15">
-        <v>0.9862909411088341</v>
+        <v>1.019395244051408</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9206983799610783</v>
+        <v>1.007807644450331</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030824265702898</v>
+        <v>1.025985250117173</v>
       </c>
       <c r="J15">
-        <v>0.9889453125811266</v>
+        <v>1.018816419757114</v>
       </c>
       <c r="K15">
-        <v>1.001402710614361</v>
+        <v>1.023008941856873</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9372072707064546</v>
+        <v>1.011466220682681</v>
       </c>
       <c r="N15">
-        <v>0.9903497283586047</v>
+        <v>1.020263255933046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9615655946862864</v>
+        <v>1.01275870598034</v>
       </c>
       <c r="D16">
-        <v>0.9889169664855669</v>
+        <v>1.019867059693041</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9265456985040451</v>
+        <v>1.00886070900245</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031654813569728</v>
+        <v>1.02608176179127</v>
       </c>
       <c r="J16">
-        <v>0.9913097235567897</v>
+        <v>1.019239498086258</v>
       </c>
       <c r="K16">
-        <v>1.003451978200114</v>
+        <v>1.023363074702396</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9423401420409938</v>
+        <v>1.01239782469306</v>
       </c>
       <c r="N16">
-        <v>0.992717497069055</v>
+        <v>1.020686935081945</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.96384277834801</v>
+        <v>1.013165506661508</v>
       </c>
       <c r="D17">
-        <v>0.9905369213156974</v>
+        <v>1.020162777939031</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9301377189328955</v>
+        <v>1.009520925502114</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032162925705524</v>
+        <v>1.026141756367808</v>
       </c>
       <c r="J17">
-        <v>0.9927650145648516</v>
+        <v>1.01950450755309</v>
       </c>
       <c r="K17">
-        <v>1.004712932274964</v>
+        <v>1.023584756601122</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9454925922223568</v>
+        <v>1.012981719845379</v>
       </c>
       <c r="N17">
-        <v>0.9941748547572724</v>
+        <v>1.020952320892617</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9651570137150598</v>
+        <v>1.013402711989008</v>
       </c>
       <c r="D18">
-        <v>0.9914723264781269</v>
+        <v>1.020335179426046</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.932206836601285</v>
+        <v>1.009905898189045</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032454791523126</v>
+        <v>1.026176553992585</v>
       </c>
       <c r="J18">
-        <v>0.9936041957760063</v>
+        <v>1.019658947975695</v>
       </c>
       <c r="K18">
-        <v>1.005439900329059</v>
+        <v>1.023713895791683</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9473082296227632</v>
+        <v>1.013322127479442</v>
       </c>
       <c r="N18">
-        <v>0.9950152277020027</v>
+        <v>1.021106980638337</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9656028081668662</v>
+        <v>1.013483580287965</v>
       </c>
       <c r="D19">
-        <v>0.9917896975223879</v>
+        <v>1.020393949320443</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9329080499929161</v>
+        <v>1.010037143800917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032553557480172</v>
+        <v>1.026188385812848</v>
       </c>
       <c r="J19">
-        <v>0.9938887287696431</v>
+        <v>1.019711585299954</v>
       </c>
       <c r="K19">
-        <v>1.00568635909103</v>
+        <v>1.02375790111249</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9479234908822106</v>
+        <v>1.013438169363255</v>
       </c>
       <c r="N19">
-        <v>0.9953001647651263</v>
+        <v>1.021159692713633</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9635999189716633</v>
+        <v>1.013121868535433</v>
       </c>
       <c r="D20">
-        <v>0.9903641042982312</v>
+        <v>1.020131059067889</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9297550511985073</v>
+        <v>1.009450103050661</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032108879139037</v>
+        <v>1.026135339813285</v>
       </c>
       <c r="J20">
-        <v>0.9926098833651199</v>
+        <v>1.019476088533656</v>
       </c>
       <c r="K20">
-        <v>1.004578532233722</v>
+        <v>1.023560989214044</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9451567809612349</v>
+        <v>1.012919090918389</v>
       </c>
       <c r="N20">
-        <v>0.9940195032534433</v>
+        <v>1.020923861514916</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9569198034300724</v>
+        <v>1.011945026234539</v>
       </c>
       <c r="D21">
-        <v>0.9856154265692315</v>
+        <v>1.019275365296149</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9191891162981265</v>
+        <v>1.007540138877542</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030609291240062</v>
+        <v>1.025960575584653</v>
       </c>
       <c r="J21">
-        <v>0.9883360346615744</v>
+        <v>1.018708874005103</v>
       </c>
       <c r="K21">
-        <v>1.000874541642075</v>
+        <v>1.022918878472484</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.935882223593275</v>
+        <v>1.011229516233937</v>
       </c>
       <c r="N21">
-        <v>0.9897395851945215</v>
+        <v>1.020155557453732</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9525812340731601</v>
+        <v>1.01120441023922</v>
       </c>
       <c r="D22">
-        <v>0.9825365846044414</v>
+        <v>1.018736576709593</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9122823003124311</v>
+        <v>1.006338114802934</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029622925463164</v>
+        <v>1.025848924992503</v>
       </c>
       <c r="J22">
-        <v>0.985553593228953</v>
+        <v>1.018225267145674</v>
       </c>
       <c r="K22">
-        <v>0.9984621190452968</v>
+        <v>1.02251367249219</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9298176518636818</v>
+        <v>1.010165635051638</v>
       </c>
       <c r="N22">
-        <v>0.9869531923759154</v>
+        <v>1.019671263817091</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9548949617798455</v>
+        <v>1.011597090846267</v>
       </c>
       <c r="D23">
-        <v>0.9841779670625421</v>
+        <v>1.019022272934744</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9159702418162982</v>
+        <v>1.006975443226797</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030150092705611</v>
+        <v>1.025908280892351</v>
       </c>
       <c r="J23">
-        <v>0.9870380802874708</v>
+        <v>1.01848175330769</v>
       </c>
       <c r="K23">
-        <v>0.9997492645769713</v>
+        <v>1.022728620997495</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9330560167464407</v>
+        <v>1.010729771153859</v>
       </c>
       <c r="N23">
-        <v>0.9884397875763294</v>
+        <v>1.019928114218876</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.963709699827482</v>
+        <v>1.013141586956791</v>
       </c>
       <c r="D24">
-        <v>0.9904422221070214</v>
+        <v>1.020145391726139</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9299280424657302</v>
+        <v>1.009482105039209</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032133314354639</v>
+        <v>1.026138239784325</v>
       </c>
       <c r="J24">
-        <v>0.9926800102593937</v>
+        <v>1.019488930282719</v>
       </c>
       <c r="K24">
-        <v>1.004639288101296</v>
+        <v>1.023571729180314</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9453085908435576</v>
+        <v>1.012947390754662</v>
       </c>
       <c r="N24">
-        <v>0.9940897297359506</v>
+        <v>1.020936721500735</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.973393884736743</v>
+        <v>1.014930969254094</v>
       </c>
       <c r="D25">
-        <v>0.9973422861198977</v>
+        <v>1.021445338945091</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9451137825101904</v>
+        <v>1.012386257174939</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034259005791998</v>
+        <v>1.026397398702084</v>
       </c>
       <c r="J25">
-        <v>0.9988510683567536</v>
+        <v>1.020652408352513</v>
       </c>
       <c r="K25">
-        <v>1.009982000254323</v>
+        <v>1.024543674910681</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9586284103673928</v>
+        <v>1.015514234164774</v>
       </c>
       <c r="N25">
-        <v>1.000269551443639</v>
+        <v>1.022101851842842</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_228/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_228/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016355905698264</v>
+        <v>0.9807337984114823</v>
       </c>
       <c r="D2">
-        <v>1.022479483613737</v>
+        <v>1.002582434166052</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.014699180095862</v>
+        <v>0.9565361100856825</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026597905994943</v>
+        <v>1.035825714383001</v>
       </c>
       <c r="J2">
-        <v>1.02157618415187</v>
+        <v>1.00350643529188</v>
       </c>
       <c r="K2">
-        <v>1.025313742829508</v>
+        <v>1.014005908442572</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.017556549926796</v>
+        <v>0.9686361189350906</v>
       </c>
       <c r="N2">
-        <v>1.023026939509792</v>
+        <v>1.004931529533792</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017389262125247</v>
+        <v>0.9858638981241976</v>
       </c>
       <c r="D3">
-        <v>1.023228818503399</v>
+        <v>1.006249184928213</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.016376763410981</v>
+        <v>0.9644818052147841</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026739901939617</v>
+        <v>1.036894112565818</v>
       </c>
       <c r="J3">
-        <v>1.02224451437671</v>
+        <v>1.006747488795181</v>
       </c>
       <c r="K3">
-        <v>1.025869909336335</v>
+        <v>1.016802725862233</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.019036714724625</v>
+        <v>0.9755902668267999</v>
       </c>
       <c r="N3">
-        <v>1.02369621884021</v>
+        <v>1.008177185704821</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018057337339677</v>
+        <v>0.9890980160018935</v>
       </c>
       <c r="D4">
-        <v>1.023712977436805</v>
+        <v>1.008562202549681</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.017461496354829</v>
+        <v>0.9694770658272235</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02683012277388</v>
+        <v>1.0375550224115</v>
       </c>
       <c r="J4">
-        <v>1.022675861717926</v>
+        <v>1.008784767541922</v>
       </c>
       <c r="K4">
-        <v>1.026228417103951</v>
+        <v>1.018558376141378</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.019993265129218</v>
+        <v>0.9799583911599546</v>
       </c>
       <c r="N4">
-        <v>1.024128178744127</v>
+        <v>1.010217357621062</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018338060112591</v>
+        <v>0.9904381255814504</v>
       </c>
       <c r="D5">
-        <v>1.023916348077487</v>
+        <v>1.009520904746627</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.017917340599199</v>
+        <v>0.9715440876595269</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026867654294941</v>
+        <v>1.037825803499415</v>
       </c>
       <c r="J5">
-        <v>1.022856936295487</v>
+        <v>1.009627509635331</v>
       </c>
       <c r="K5">
-        <v>1.026378806620884</v>
+        <v>1.019284010224044</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.020395115144845</v>
+        <v>0.9817649582892078</v>
       </c>
       <c r="N5">
-        <v>1.024309510468357</v>
+        <v>1.011061296504907</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018385186773475</v>
+        <v>0.9906620174303159</v>
       </c>
       <c r="D6">
-        <v>1.023950484958692</v>
+        <v>1.009681088391536</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.017993868683567</v>
+        <v>0.9718892704797503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026873932706341</v>
+        <v>1.03787086049832</v>
       </c>
       <c r="J6">
-        <v>1.022887324075736</v>
+        <v>1.00976822151598</v>
       </c>
       <c r="K6">
-        <v>1.026404038516425</v>
+        <v>1.0194051318093</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.020462571097077</v>
+        <v>0.9820665895088332</v>
       </c>
       <c r="N6">
-        <v>1.02433994140274</v>
+        <v>1.011202208212566</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018061088903551</v>
+        <v>0.9891159981037423</v>
       </c>
       <c r="D7">
-        <v>1.023715695551894</v>
+        <v>1.008575065829936</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.017467588055177</v>
+        <v>0.9695048125648996</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026830625832979</v>
+        <v>1.037558668089477</v>
       </c>
       <c r="J7">
-        <v>1.02267828228059</v>
+        <v>1.008796081477953</v>
       </c>
       <c r="K7">
-        <v>1.026230427900756</v>
+        <v>1.018568120344143</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.019998635775003</v>
+        <v>0.9799826454786876</v>
       </c>
       <c r="N7">
-        <v>1.024130602744267</v>
+        <v>1.01022868762418</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01670525354399</v>
+        <v>0.9824858047018612</v>
       </c>
       <c r="D8">
-        <v>1.022732872281074</v>
+        <v>1.003834337253559</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.01526629278056</v>
+        <v>0.9592529114416111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026646237971952</v>
+        <v>1.036193217585408</v>
       </c>
       <c r="J8">
-        <v>1.021802279403886</v>
+        <v>1.004614549276638</v>
       </c>
       <c r="K8">
-        <v>1.025501985779147</v>
+        <v>1.014962619304382</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.018057034474654</v>
+        <v>0.9710146584862515</v>
       </c>
       <c r="N8">
-        <v>1.023253355842999</v>
+        <v>1.00604121716751</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014311612582236</v>
+        <v>0.9701028102138388</v>
       </c>
       <c r="D9">
-        <v>1.020995548613844</v>
+        <v>0.994995460057566</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.011381020659848</v>
+        <v>0.9399688846896701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026308604200629</v>
+        <v>1.033543534042996</v>
       </c>
       <c r="J9">
-        <v>1.020250118624637</v>
+        <v>0.9967573596069852</v>
       </c>
       <c r="K9">
-        <v>1.024207862492533</v>
+        <v>1.008170257646204</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.014626057207372</v>
+        <v>0.9541172934844485</v>
       </c>
       <c r="N9">
-        <v>1.021698990817409</v>
+        <v>0.9981728693872941</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012712723436749</v>
+        <v>0.9613063165853621</v>
       </c>
       <c r="D10">
-        <v>1.019833629035883</v>
+        <v>0.988732587903987</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.008786081658748</v>
+        <v>0.926136150354934</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026074955273946</v>
+        <v>1.031596772901818</v>
       </c>
       <c r="J10">
-        <v>1.01920953114614</v>
+        <v>0.9911439277953312</v>
       </c>
       <c r="K10">
-        <v>1.023338000285984</v>
+        <v>1.003308303262646</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.012331815916494</v>
+        <v>0.9419806764708266</v>
       </c>
       <c r="N10">
-        <v>1.020656925585335</v>
+        <v>0.9925514658585984</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01201961876227</v>
+        <v>0.9573508698006354</v>
       </c>
       <c r="D11">
-        <v>1.019329618672648</v>
+        <v>0.9859215655849521</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.00766120077835</v>
+        <v>0.9198733709290712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025971750119433</v>
+        <v>1.030706782092775</v>
       </c>
       <c r="J11">
-        <v>1.018757548354732</v>
+        <v>0.9886122093836615</v>
       </c>
       <c r="K11">
-        <v>1.022959642601455</v>
+        <v>1.001113955580541</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.011336641464614</v>
+        <v>0.936482968702427</v>
       </c>
       <c r="N11">
-        <v>1.020204300926519</v>
+        <v>0.9900161521163915</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011762050023323</v>
+        <v>0.9558578765129832</v>
       </c>
       <c r="D12">
-        <v>1.019142272046536</v>
+        <v>0.9848614353288943</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.007243171375214</v>
+        <v>0.9175019618230195</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025933109332702</v>
+        <v>1.030368720528918</v>
       </c>
       <c r="J12">
-        <v>1.018589449607373</v>
+        <v>0.9876554628843803</v>
       </c>
       <c r="K12">
-        <v>1.022818847050627</v>
+        <v>1.000284529262184</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.010966717286365</v>
+        <v>0.9344009186890623</v>
       </c>
       <c r="N12">
-        <v>1.020035963459659</v>
+        <v>0.9890580469273411</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011817304806159</v>
+        <v>0.9561792343969254</v>
       </c>
       <c r="D13">
-        <v>1.019182464643873</v>
+        <v>0.9850895794675771</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.007332849247436</v>
+        <v>0.9180127515298875</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025941411754956</v>
+        <v>1.030441581514512</v>
       </c>
       <c r="J13">
-        <v>1.018625516989092</v>
+        <v>0.9878614486069054</v>
       </c>
       <c r="K13">
-        <v>1.022849059805086</v>
+        <v>1.0004631100126</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.011046079731223</v>
+        <v>0.9348493954646769</v>
       </c>
       <c r="N13">
-        <v>1.020072082061196</v>
+        <v>0.9892643251732189</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011998330487152</v>
+        <v>0.957227954152184</v>
       </c>
       <c r="D14">
-        <v>1.01931413529534</v>
+        <v>0.9858342678838746</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.007626650446014</v>
+        <v>0.9196782959461477</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025968562299689</v>
+        <v>1.030678992960185</v>
       </c>
       <c r="J14">
-        <v>1.018743657598536</v>
+        <v>0.9885334652896064</v>
       </c>
       <c r="K14">
-        <v>1.022948009639017</v>
+        <v>1.001045693610768</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.011306069017652</v>
+        <v>0.936311702996673</v>
       </c>
       <c r="N14">
-        <v>1.020190390443857</v>
+        <v>0.9899372961966909</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012109850570729</v>
+        <v>0.9578709001377378</v>
       </c>
       <c r="D15">
-        <v>1.019395244051408</v>
+        <v>0.9862909411088341</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.007807644450331</v>
+        <v>0.9206983799610777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025985250117173</v>
+        <v>1.030824265702899</v>
       </c>
       <c r="J15">
-        <v>1.018816419757114</v>
+        <v>0.9889453125811268</v>
       </c>
       <c r="K15">
-        <v>1.023008941856873</v>
+        <v>1.001402710614361</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.011466220682681</v>
+        <v>0.9372072707064542</v>
       </c>
       <c r="N15">
-        <v>1.020263255933046</v>
+        <v>0.9903497283586049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01275870598034</v>
+        <v>0.9615655946862857</v>
       </c>
       <c r="D16">
-        <v>1.019867059693041</v>
+        <v>0.9889169664855664</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.00886070900245</v>
+        <v>0.9265456985040444</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02608176179127</v>
+        <v>1.031654813569728</v>
       </c>
       <c r="J16">
-        <v>1.019239498086258</v>
+        <v>0.9913097235567891</v>
       </c>
       <c r="K16">
-        <v>1.023363074702396</v>
+        <v>1.003451978200114</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.01239782469306</v>
+        <v>0.9423401420409933</v>
       </c>
       <c r="N16">
-        <v>1.020686935081945</v>
+        <v>0.9927174970690544</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013165506661508</v>
+        <v>0.9638427783480102</v>
       </c>
       <c r="D17">
-        <v>1.020162777939031</v>
+        <v>0.9905369213156976</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.009520925502114</v>
+        <v>0.930137718932896</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026141756367808</v>
+        <v>1.032162925705524</v>
       </c>
       <c r="J17">
-        <v>1.01950450755309</v>
+        <v>0.9927650145648518</v>
       </c>
       <c r="K17">
-        <v>1.023584756601122</v>
+        <v>1.004712932274964</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.012981719845379</v>
+        <v>0.9454925922223573</v>
       </c>
       <c r="N17">
-        <v>1.020952320892617</v>
+        <v>0.9941748547572725</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013402711989008</v>
+        <v>0.9651570137150587</v>
       </c>
       <c r="D18">
-        <v>1.020335179426046</v>
+        <v>0.991472326478126</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.009905898189045</v>
+        <v>0.9322068366012838</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026176553992585</v>
+        <v>1.032454791523126</v>
       </c>
       <c r="J18">
-        <v>1.019658947975695</v>
+        <v>0.9936041957760053</v>
       </c>
       <c r="K18">
-        <v>1.023713895791683</v>
+        <v>1.005439900329059</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.013322127479442</v>
+        <v>0.9473082296227618</v>
       </c>
       <c r="N18">
-        <v>1.021106980638337</v>
+        <v>0.9950152277020016</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013483580287965</v>
+        <v>0.9656028081668658</v>
       </c>
       <c r="D19">
-        <v>1.020393949320443</v>
+        <v>0.9917896975223875</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.010037143800917</v>
+        <v>0.9329080499929149</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026188385812848</v>
+        <v>1.032553557480172</v>
       </c>
       <c r="J19">
-        <v>1.019711585299954</v>
+        <v>0.9938887287696427</v>
       </c>
       <c r="K19">
-        <v>1.02375790111249</v>
+        <v>1.005686359091029</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.013438169363255</v>
+        <v>0.9479234908822096</v>
       </c>
       <c r="N19">
-        <v>1.021159692713633</v>
+        <v>0.9953001647651262</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013121868535433</v>
+        <v>0.9635999189716626</v>
       </c>
       <c r="D20">
-        <v>1.020131059067889</v>
+        <v>0.9903641042982304</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.009450103050661</v>
+        <v>0.9297550511985074</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026135339813285</v>
+        <v>1.032108879139037</v>
       </c>
       <c r="J20">
-        <v>1.019476088533656</v>
+        <v>0.9926098833651193</v>
       </c>
       <c r="K20">
-        <v>1.023560989214044</v>
+        <v>1.004578532233722</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.012919090918389</v>
+        <v>0.945156780961235</v>
       </c>
       <c r="N20">
-        <v>1.020923861514916</v>
+        <v>0.9940195032534428</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011945026234539</v>
+        <v>0.956919803430072</v>
       </c>
       <c r="D21">
-        <v>1.019275365296149</v>
+        <v>0.985615426569231</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.007540138877542</v>
+        <v>0.9191891162981258</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025960575584653</v>
+        <v>1.030609291240062</v>
       </c>
       <c r="J21">
-        <v>1.018708874005103</v>
+        <v>0.9883360346615738</v>
       </c>
       <c r="K21">
-        <v>1.022918878472484</v>
+        <v>1.000874541642075</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.011229516233937</v>
+        <v>0.9358822235932744</v>
       </c>
       <c r="N21">
-        <v>1.020155557453732</v>
+        <v>0.9897395851945208</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01120441023922</v>
+        <v>0.9525812340731608</v>
       </c>
       <c r="D22">
-        <v>1.018736576709593</v>
+        <v>0.982536584604442</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.006338114802934</v>
+        <v>0.9122823003124316</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025848924992503</v>
+        <v>1.029622925463164</v>
       </c>
       <c r="J22">
-        <v>1.018225267145674</v>
+        <v>0.9855535932289536</v>
       </c>
       <c r="K22">
-        <v>1.02251367249219</v>
+        <v>0.9984621190452974</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.010165635051638</v>
+        <v>0.9298176518636824</v>
       </c>
       <c r="N22">
-        <v>1.019671263817091</v>
+        <v>0.9869531923759162</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011597090846267</v>
+        <v>0.9548949617798455</v>
       </c>
       <c r="D23">
-        <v>1.019022272934744</v>
+        <v>0.9841779670625422</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.006975443226797</v>
+        <v>0.915970241816298</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025908280892351</v>
+        <v>1.030150092705611</v>
       </c>
       <c r="J23">
-        <v>1.01848175330769</v>
+        <v>0.9870380802874709</v>
       </c>
       <c r="K23">
-        <v>1.022728620997495</v>
+        <v>0.9997492645769713</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.010729771153859</v>
+        <v>0.9330560167464405</v>
       </c>
       <c r="N23">
-        <v>1.019928114218876</v>
+        <v>0.9884397875763292</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013141586956791</v>
+        <v>0.9637096998274818</v>
       </c>
       <c r="D24">
-        <v>1.020145391726139</v>
+        <v>0.990442222107021</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.009482105039209</v>
+        <v>0.9299280424657297</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026138239784325</v>
+        <v>1.032133314354639</v>
       </c>
       <c r="J24">
-        <v>1.019488930282719</v>
+        <v>0.9926800102593933</v>
       </c>
       <c r="K24">
-        <v>1.023571729180314</v>
+        <v>1.004639288101296</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.012947390754662</v>
+        <v>0.9453085908435568</v>
       </c>
       <c r="N24">
-        <v>1.020936721500735</v>
+        <v>0.9940897297359503</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014930969254094</v>
+        <v>0.9733938847367427</v>
       </c>
       <c r="D25">
-        <v>1.021445338945091</v>
+        <v>0.9973422861198972</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.012386257174939</v>
+        <v>0.9451137825101895</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026397398702084</v>
+        <v>1.034259005791998</v>
       </c>
       <c r="J25">
-        <v>1.020652408352513</v>
+        <v>0.9988510683567533</v>
       </c>
       <c r="K25">
-        <v>1.024543674910681</v>
+        <v>1.009982000254323</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.015514234164774</v>
+        <v>0.958628410367392</v>
       </c>
       <c r="N25">
-        <v>1.022101851842842</v>
+        <v>1.000269551443639</v>
       </c>
     </row>
   </sheetData>
